--- a/data/trans_bre/P07_R2-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P07_R2-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-9.891029588442423</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-6.453497199599423</v>
+        <v>-6.453497199599411</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.2042908147350936</v>
@@ -649,7 +649,7 @@
         <v>-0.1261719620440783</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.09378398608929385</v>
+        <v>-0.0937839860892937</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-19.19854583237384</v>
+        <v>-19.67381900105116</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-18.49321273899856</v>
+        <v>-18.64501760435308</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-13.88567667267424</v>
+        <v>-13.51563718343817</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-11.60321144112266</v>
+        <v>-11.65356825960535</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2612882914771876</v>
+        <v>-0.2663397109455066</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2301978479376059</v>
+        <v>-0.2316531867644235</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1747968755766323</v>
+        <v>-0.1698109246580936</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1619486745455116</v>
+        <v>-0.1628653939658952</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-9.43158948512273</v>
+        <v>-9.442542585236264</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-10.90931523052444</v>
+        <v>-10.91818817297507</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-6.343053669756967</v>
+        <v>-6.174694555807392</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.7217198648691121</v>
+        <v>-0.7608468531828487</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.1391892775321361</v>
+        <v>-0.1388448892841577</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.1425712542925193</v>
+        <v>-0.1412687493910098</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.08285217954141126</v>
+        <v>-0.07956793216360784</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.01238884693126987</v>
+        <v>-0.01242690327494112</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-6.929984966157532</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-8.527208274548014</v>
+        <v>-8.527208274548027</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.1309875115660604</v>
@@ -749,7 +749,7 @@
         <v>-0.08065410162521855</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.1059636757170019</v>
+        <v>-0.105963675717002</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-14.63287374736713</v>
+        <v>-14.84369467790366</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-14.6083120130059</v>
+        <v>-14.2321243990676</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-10.74929873815972</v>
+        <v>-10.52639199814912</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-11.95656462010977</v>
+        <v>-12.08201281664804</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1686873270784544</v>
+        <v>-0.1717307351014547</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1708195961119244</v>
+        <v>-0.1662045163643288</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1235726093252006</v>
+        <v>-0.120881929236248</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1443953269425109</v>
+        <v>-0.1459041109179615</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-7.992371791000148</v>
+        <v>-8.078498250138098</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-7.424333440852807</v>
+        <v>-6.849249062230829</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-3.06249597214384</v>
+        <v>-3.069509509684675</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-4.945085330875091</v>
+        <v>-4.945035067559404</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.09557880677546686</v>
+        <v>-0.09636527758945229</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.08981378199567956</v>
+        <v>-0.08255835483673939</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.03627206904431236</v>
+        <v>-0.03737124954342674</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.0637884459225049</v>
+        <v>-0.06318778512029635</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-7.757864338590792</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-6.999980474912137</v>
+        <v>-6.999980474912149</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.1135466790973082</v>
@@ -849,7 +849,7 @@
         <v>-0.08787729758559311</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.08102392071894278</v>
+        <v>-0.08102392071894289</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-13.47102920552946</v>
+        <v>-13.50856013449972</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.436615755113873</v>
+        <v>-8.611140499177955</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.77678095492464</v>
+        <v>-11.53758477664573</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-9.559796860137764</v>
+        <v>-9.690233284865856</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1512235459602816</v>
+        <v>-0.1502584337738168</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.09715104318390974</v>
+        <v>-0.09970533243744535</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1319227552371891</v>
+        <v>-0.1280584546996189</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1093372870096199</v>
+        <v>-0.1110207055625627</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-7.135363031345427</v>
+        <v>-7.032227550553341</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.8433586930657461</v>
+        <v>-1.064729085374525</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-3.677450808965965</v>
+        <v>-4.25076161890895</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-3.988166277369451</v>
+        <v>-4.058697215070254</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.08151105136392649</v>
+        <v>-0.07970732653633913</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.01001237685978944</v>
+        <v>-0.01246564737665306</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.04338507500448086</v>
+        <v>-0.04901359190162784</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.04664252825340421</v>
+        <v>-0.04766157514736291</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-10.14650540258236</v>
+        <v>-10.14909914987549</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-10.79292462099014</v>
+        <v>-10.75304701636183</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-9.986091099599943</v>
+        <v>-9.583653071120926</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.325118980433031</v>
+        <v>-5.206801212565175</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1104717918151575</v>
+        <v>-0.109946875833699</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1192658620688419</v>
+        <v>-0.1204907005944208</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1107243014406999</v>
+        <v>-0.1060903554721524</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.05920823132775656</v>
+        <v>-0.05909499595981331</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-0.6010526230768515</v>
+        <v>-0.6539037540688225</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.9813008724625933</v>
+        <v>-0.8584434683295132</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-0.4058118233633874</v>
+        <v>-0.2749272108828115</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.45827200122674</v>
+        <v>0.3928414235667193</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.007023237577933836</v>
+        <v>-0.007837717623988747</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.01090062131112562</v>
+        <v>-0.01061828107816223</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.004665764225543314</v>
+        <v>-0.003245964055697733</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.005370913181150786</v>
+        <v>0.004195897817554393</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-14.81465362631974</v>
+        <v>-14.90867181732571</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-12.05266356912856</v>
+        <v>-11.97068722030694</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-10.13356522936062</v>
+        <v>-10.03057870630684</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-8.7860928407397</v>
+        <v>-8.562512160537347</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1737632000172644</v>
+        <v>-0.1745209040558056</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1431283109857077</v>
+        <v>-0.1426373423469655</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1194612751375241</v>
+        <v>-0.1177314621667302</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1050592223305546</v>
+        <v>-0.1017026887182581</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-10.86783026112832</v>
+        <v>-10.86544602586536</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-8.022833055524984</v>
+        <v>-8.023439658331425</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-6.228333105052181</v>
+        <v>-6.258266537149518</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-5.15432764268081</v>
+        <v>-5.044524644808205</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.1301907820216562</v>
+        <v>-0.129728326912262</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.09751798284320863</v>
+        <v>-0.0977667176094002</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.07470341437731086</v>
+        <v>-0.07524793674764051</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.06328380127954353</v>
+        <v>-0.06196797398848037</v>
       </c>
     </row>
     <row r="19">
